--- a/Consignor_Inventory_TEMPLATE.xlsx
+++ b/Consignor_Inventory_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\halfpinttools-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593C0180-494C-4557-81AB-CA8CAD1A22EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48B15A-7D35-4BBD-A694-5148993C3516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FA8DB676-FCAF-4AB0-B404-3784C748B72E}"/>
   </bookViews>
@@ -532,9 +532,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D1048576" xr:uid="{E7C408B5-D78B-4A63-A2A2-BCC22013E40A}">
-      <formula1>"y,Y,yes,Yes,n,N,no,No"</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D1048576" xr:uid="{E7C408B5-D78B-4A63-A2A2-BCC22013E40A}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C1048576" xr:uid="{D2A36250-BD8D-43BC-AEA8-B69364CD1FB4}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2:B1048576" xr:uid="{748E01B5-461A-4305-9DFC-168ABC07C8E7}">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Consignor_Inventory_TEMPLATE.xlsx
+++ b/Consignor_Inventory_TEMPLATE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\halfpinttools-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\halfpinttools-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48B15A-7D35-4BBD-A694-5148993C3516}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C47B427-79FF-482E-9557-AA95361D80ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{FA8DB676-FCAF-4AB0-B404-3784C748B72E}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>2T</t>
   </si>
   <si>
@@ -62,13 +59,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Consignor</t>
   </si>
   <si>
     <t>Red snow boots</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -133,11 +133,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -457,38 +459,38 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -496,19 +498,19 @@
         <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -516,30 +518,24 @@
         <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D2:D1048576" xr:uid="{E7C408B5-D78B-4A63-A2A2-BCC22013E40A}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C2:C1048576" xr:uid="{D2A36250-BD8D-43BC-AEA8-B69364CD1FB4}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2:B1048576" xr:uid="{748E01B5-461A-4305-9DFC-168ABC07C8E7}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B2:D1048576" xr:uid="{E7C408B5-D78B-4A63-A2A2-BCC22013E40A}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
